--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>921.235696099929</v>
+        <v>69.55752289936801</v>
       </c>
       <c r="R2">
-        <v>8291.121264899361</v>
+        <v>626.017706094312</v>
       </c>
       <c r="S2">
-        <v>0.0366976854255805</v>
+        <v>0.004494802304267002</v>
       </c>
       <c r="T2">
-        <v>0.03669768542558052</v>
+        <v>0.004494802304267003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>748.5855417177829</v>
+        <v>172.760491313676</v>
       </c>
       <c r="R3">
-        <v>6737.269875460046</v>
+        <v>1554.844421823084</v>
       </c>
       <c r="S3">
-        <v>0.0298201175230156</v>
+        <v>0.01116377096358711</v>
       </c>
       <c r="T3">
-        <v>0.02982011752301561</v>
+        <v>0.01116377096358711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>111.5613801336601</v>
+        <v>25.746421443428</v>
       </c>
       <c r="R4">
-        <v>1004.052421202941</v>
+        <v>231.717792990852</v>
       </c>
       <c r="S4">
-        <v>0.004444079241741164</v>
+        <v>0.001663731967539646</v>
       </c>
       <c r="T4">
-        <v>0.004444079241741165</v>
+        <v>0.001663731967539647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>11773.71125438679</v>
+        <v>3851.977438859834</v>
       </c>
       <c r="R5">
-        <v>105963.4012894811</v>
+        <v>34667.79694973851</v>
       </c>
       <c r="S5">
-        <v>0.4690091295140562</v>
+        <v>0.2489145148716761</v>
       </c>
       <c r="T5">
-        <v>0.4690091295140564</v>
+        <v>0.2489145148716762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>9567.182486204762</v>
@@ -818,10 +818,10 @@
         <v>86104.64237584286</v>
       </c>
       <c r="S6">
-        <v>0.3811114297613816</v>
+        <v>0.6182306685439309</v>
       </c>
       <c r="T6">
-        <v>0.3811114297613817</v>
+        <v>0.6182306685439312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>1425.793075968822</v>
@@ -880,10 +880,10 @@
         <v>12832.1376837194</v>
       </c>
       <c r="S7">
-        <v>0.05679687185959739</v>
+        <v>0.09213464965600188</v>
       </c>
       <c r="T7">
-        <v>0.05679687185959739</v>
+        <v>0.0921346496560019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>287.1734170219582</v>
+        <v>93.95385189157868</v>
       </c>
       <c r="R8">
-        <v>2584.560753197624</v>
+        <v>845.5846670242081</v>
       </c>
       <c r="S8">
-        <v>0.01143963457460046</v>
+        <v>0.006071291391270425</v>
       </c>
       <c r="T8">
-        <v>0.01143963457460046</v>
+        <v>0.006071291391270427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>233.353819069784</v>
@@ -1004,10 +1004,10 @@
         <v>2100.184371628056</v>
       </c>
       <c r="S9">
-        <v>0.00929571561472782</v>
+        <v>0.01507930759957957</v>
       </c>
       <c r="T9">
-        <v>0.009295715614727824</v>
+        <v>0.01507930759957958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
-        <v>34.77661892206312</v>
+        <v>34.77661892206311</v>
       </c>
       <c r="R10">
-        <v>312.9895702985681</v>
+        <v>312.989570298568</v>
       </c>
       <c r="S10">
-        <v>0.001385336485299119</v>
+        <v>0.002247262702147275</v>
       </c>
       <c r="T10">
-        <v>0.00138533648529912</v>
+        <v>0.002247262702147276</v>
       </c>
     </row>
   </sheetData>
